--- a/lit_summary.xlsx
+++ b/lit_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rutgersconnect-my.sharepoint.com/personal/kk927_physics_rutgers_edu/Documents/files_GitHub/JJ_arrays/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="114_{9E2B9DB6-0318-480A-A10C-94D01895DF1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E6135C9B-72EE-4813-9BEA-B348343FA5C4}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="114_{9E2B9DB6-0318-480A-A10C-94D01895DF1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{841B4BFB-542B-45C9-AC23-3C4469E4C014}"/>
   <bookViews>
     <workbookView xWindow="1812" yWindow="1812" windowWidth="16584" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
@@ -542,26 +542,52 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>2.0000000000000001E-10</v>
+      </c>
+      <c r="D3">
+        <v>100000</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>100000</v>
+      </c>
+      <c r="I3">
+        <v>0.22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3">
+        <v>9.2293272321287351E-9</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
-        <v>2.0000000000000001E-10</v>
+        <v>5.0000000000000002E-11</v>
       </c>
       <c r="D4">
-        <v>100000</v>
+        <v>400000</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>100000</v>
+        <v>400000</v>
       </c>
       <c r="I4">
-        <v>0.22</v>
+        <v>0.1</v>
       </c>
       <c r="K4" t="s">
         <v>15</v>
@@ -570,27 +596,27 @@
         <v>16</v>
       </c>
       <c r="M4">
-        <v>9.2293272321287351E-9</v>
+        <v>4.1951487418766984E-9</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>5.0000000000000002E-11</v>
+        <v>1.5E-11</v>
       </c>
       <c r="D5">
-        <v>400000</v>
+        <v>1333333.333333333</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>400000</v>
+        <v>1333333.333333333</v>
       </c>
       <c r="I5">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="K5" t="s">
         <v>15</v>
@@ -599,27 +625,27 @@
         <v>16</v>
       </c>
       <c r="M5">
-        <v>4.1951487418766984E-9</v>
+        <v>2.517089245126018E-9</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>1.5E-11</v>
+        <v>2E-12</v>
       </c>
       <c r="D6">
-        <v>1333333.333333333</v>
+        <v>10000000</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1333333.333333333</v>
+        <v>10000000</v>
       </c>
       <c r="I6">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
@@ -628,27 +654,27 @@
         <v>16</v>
       </c>
       <c r="M6">
-        <v>2.517089245126018E-9</v>
+        <v>8.3902974837533959E-10</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
-        <v>2E-12</v>
+        <v>4.9999999999999999E-13</v>
       </c>
       <c r="D7">
-        <v>10000000</v>
+        <v>40000000.000000007</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10000000</v>
+        <v>40000000.000000007</v>
       </c>
       <c r="I7">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="K7" t="s">
         <v>15</v>
@@ -657,27 +683,27 @@
         <v>16</v>
       </c>
       <c r="M7">
-        <v>8.3902974837533959E-10</v>
+        <v>4.195148741876698E-10</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>4.9999999999999999E-13</v>
+        <v>6.6000000000000004E-9</v>
       </c>
       <c r="D8">
-        <v>40000000.000000007</v>
+        <v>3030.30303030303</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>40000000.000000007</v>
+        <v>800.00000000000011</v>
       </c>
       <c r="I8">
-        <v>0.01</v>
+        <v>1.18</v>
       </c>
       <c r="K8" t="s">
         <v>15</v>
@@ -686,27 +712,27 @@
         <v>16</v>
       </c>
       <c r="M8">
-        <v>4.195148741876698E-10</v>
+        <v>1.132690160306708E-7</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9">
-        <v>6.6000000000000004E-9</v>
+        <v>1.4999999999999999E-8</v>
       </c>
       <c r="D9">
-        <v>3030.30303030303</v>
+        <v>1333.333333333333</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>800.00000000000011</v>
+        <v>1333.333333333333</v>
       </c>
       <c r="I9">
-        <v>1.18</v>
+        <v>1.9</v>
       </c>
       <c r="K9" t="s">
         <v>15</v>
@@ -715,35 +741,6 @@
         <v>16</v>
       </c>
       <c r="M9">
-        <v>1.132690160306708E-7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10">
-        <v>1.4999999999999999E-8</v>
-      </c>
-      <c r="D10">
-        <v>1333.333333333333</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1333.333333333333</v>
-      </c>
-      <c r="I10">
-        <v>1.9</v>
-      </c>
-      <c r="K10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10">
         <v>7.9707826095657249E-8</v>
       </c>
     </row>
